--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640236404</v>
+        <v>1146088.991921113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640236404</v>
+        <v>1146088.991921113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343241321.938386</v>
+        <v>54924128.01833291</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12483.79326268323</v>
+        <v>1355221.68326542</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23438.84930932763</v>
+        <v>2457176.59355644</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34393.90535597201</v>
+        <v>3559131.503847461</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45922.0190536666</v>
+        <v>4624424.779945092</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57450.13275136117</v>
+        <v>5689718.056042723</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68978.24644905575</v>
+        <v>6755011.332140353</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80506.36014675029</v>
+        <v>7820304.608237979</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>92034.47384444486</v>
+        <v>8885597.884335607</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103352.752247775</v>
+        <v>9949343.590233449</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114706.66701474</v>
+        <v>11020180.93249521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126060.5817817034</v>
+        <v>12091018.27475704</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137414.4965486667</v>
+        <v>13161855.61701888</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148768.41131563</v>
+        <v>14232692.95928072</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160122.3260825965</v>
+        <v>15303530.30154221</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171476.2408495629</v>
+        <v>16374367.6438037</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
